--- a/public/test.xlsx
+++ b/public/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>asdasds</t>
+  </si>
+  <si>
+    <t>khương</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +547,167 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>97513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9999</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>97513</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>9999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>12321</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>97513</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>12321</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>12321</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>12321</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>16</v>
       </c>
     </row>
